--- a/HW4/kmeans/kmeans_results.xlsx
+++ b/HW4/kmeans/kmeans_results.xlsx
@@ -16,7 +16,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+  <si>
+    <t>Local</t>
+  </si>
+  <si>
+    <t>Chundoong</t>
+  </si>
   <si>
     <t>Threads</t>
   </si>
@@ -40,11 +46,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -60,6 +67,24 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="18"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -104,8 +129,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -181,10 +210,30 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="1">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Speed</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -215,7 +264,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="7"/>
+            <c:size val="6"/>
           </c:marker>
           <c:dLbls>
             <c:showLegendKey val="0"/>
@@ -303,11 +352,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="72549438"/>
-        <c:axId val="48115796"/>
+        <c:axId val="84875910"/>
+        <c:axId val="22468229"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="72549438"/>
+        <c:axId val="84875910"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -323,14 +372,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="48115796"/>
-        <c:crossesAt val="0"/>
+        <c:crossAx val="22468229"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="48115796"/>
+        <c:axId val="22468229"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -355,7 +404,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="72549438"/>
+        <c:crossAx val="84875910"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -395,15 +444,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>184680</xdr:colOff>
+      <xdr:colOff>211680</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>132120</xdr:rowOff>
+      <xdr:rowOff>123120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>254880</xdr:colOff>
+      <xdr:colOff>281520</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>120600</xdr:rowOff>
+      <xdr:rowOff>111240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -411,8 +460,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="184680" y="2082600"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="211680" y="2073600"/>
+        <a:ext cx="5759280" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -430,76 +479,116 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.9438775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>2</v>
+      <c r="B3" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>28.368294126</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>17.122074167</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>19.854599421</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>15.465211171</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>18.922145272</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>17.143747343</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>17.89131393</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>17.216983885</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>18.151551134</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>17.708858286</v>
       </c>
     </row>
   </sheetData>
@@ -531,16 +620,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>4</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -696,7 +785,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
